--- a/APF/SD008/SD008_功能測試驗收規格書_APF0505.xlsx
+++ b/APF/SD008/SD008_功能測試驗收規格書_APF0505.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="172">
   <si>
     <t>序號</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -693,28 +693,8 @@
   </si>
   <si>
     <t>傳入參數：
-emp_id = "test0001"
-org_id = "A01"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳入參數：
-org_id = "A01"
-search_org_id 
-suda_work_id ="P001"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳入參數：
 emp_type = 1(速達正式工員)
 emp_state = 1(生效中)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳入參數：
-emp_id = "test0002"
-org_id = "A01"
-suda_work_id ="P003"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -725,22 +705,11 @@
   </si>
   <si>
     <t>傳入參數：
-org_id = "A01"
-emp_state = 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳入參數：
 emp_id = "test0001"
 emp_state = 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.API Runtime Error
-2.回傳失敗訊息(APFAPI_NO 9)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>取得所有職稱資料失敗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -751,6 +720,89 @@
   <si>
     <t>不輸入任何查詢條件</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入參數：
+org_name = "北一區營業部"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入參數：
+org_id = "0002"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入參數：
+org_id = "0101"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入參數：
+org_id = "0102"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入參數：
+org_id = "2010"
+org_name = "中區營業部"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入參數：
+org_id = "0001"
+org_name = "總部"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入參數：
+org_id = "0050"
+org_name = "經營企劃部"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入參數：
+suda_work_name = "所長"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入參數：
+suda_work_name = "女事務"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入參數：
+suda_work_id = "0100"
+suda_work_name = "總務經理"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入參數：
+suda_work_id = "0020"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入參數：
+suda_work_id = "0050"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入參數：
+suda_work_id = "0002"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入參數：
+suda_work_id = "0010"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳入參數：
+suda_work_id = "0100"
+suda_work_name = "SD"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>傳入參數：
@@ -760,87 +812,51 @@
   </si>
   <si>
     <t>傳入參數：
-org_name = "北一區營業部"</t>
+emp_id = "test0001"
+org_id = "1010"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>傳入參數：
-org_id = "0002"</t>
+org_id = "1010"
+suda_work_id ="P001"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>傳入參數：
-org_id = "0101"</t>
+emp_id = "test0002"
+org_id = "1010"
+suda_work_id ="P003"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>傳入參數：
-org_id = "0102"</t>
+org_id = "1010"
+emp_state = 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合預期結果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>傳入參數：
-org_id = "0100"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳入參數：
-org_id = "2010"
-org_name = "中區營業部"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳入參數：
-org_id = "0001"
-org_name = "總部"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳入參數：
-org_id = "0050"
-org_name = "經營企劃部"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳入參數：
-suda_work_name = "所長"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳入參數：
-suda_work_name = "女事務"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳入參數：
-suda_work_id = "0100"
-suda_work_name = "總務經理"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳入參數：
-suda_work_id = "0020"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳入參數：
-suda_work_id = "0050"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳入參數：
-suda_work_id = "0002"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳入參數：
-suda_work_id = "0010"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳入參數：
-suda_work_id = "0100"
-suda_work_name = "SD"</t>
+org_id = "1010"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.API Runtime Error
+2.回傳Error Exception</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.API Runtime Error
+2.回傳Error Exception</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.API Runtime Error
+2.回傳Error Exception</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1956,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2578,22 +2594,22 @@
     <row r="4" spans="1:14">
       <c r="A4" s="24">
         <f ca="1">SUM(C4:M4)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="34">
         <f ca="1">IF(C$2="", "", COUNTIF(INDIRECT(C$2&amp;"!$b:$b"), "&gt;""")-1)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="34">
         <f t="shared" ref="D4:N4" ca="1" si="1">IF(D$2="", "", COUNTIF(INDIRECT(D$2&amp;"!$b:$b"), "&gt;""")-1)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E4" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -2617,22 +2633,22 @@
     <row r="5" spans="1:14">
       <c r="A5" s="24">
         <f ca="1">SUM(C5:M5)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="34">
         <f ca="1">IF(C$2="", "", COUNTIF(INDIRECT(C$2&amp;"!$b:$b"), "ok"))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:N5" ca="1" si="2">IF(D$2="", "", COUNTIF(INDIRECT(D$2&amp;"!$b:$b"), "ok"))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E5" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -6995,11 +7011,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7084,7 +7100,9 @@
       <c r="A5" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C5" s="48" t="s">
         <v>87</v>
       </c>
@@ -7100,13 +7118,17 @@
       <c r="G5" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="50"/>
+      <c r="H5" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A6" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C6" s="48" t="s">
         <v>90</v>
       </c>
@@ -7117,18 +7139,22 @@
         <v>124</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="G6" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="50"/>
+      <c r="H6" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A7" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C7" s="48" t="s">
         <v>91</v>
       </c>
@@ -7139,18 +7165,22 @@
         <v>124</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="G7" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A8" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C8" s="48" t="s">
         <v>101</v>
       </c>
@@ -7161,18 +7191,22 @@
         <v>124</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="G8" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="50"/>
+      <c r="H8" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A9" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C9" s="48" t="s">
         <v>102</v>
       </c>
@@ -7183,18 +7217,22 @@
         <v>124</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G9" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="50"/>
+      <c r="H9" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A10" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C10" s="48" t="s">
         <v>103</v>
       </c>
@@ -7205,18 +7243,22 @@
         <v>124</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="G10" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="50"/>
+      <c r="H10" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A11" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C11" s="48" t="s">
         <v>104</v>
       </c>
@@ -7227,18 +7269,22 @@
         <v>124</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G11" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="50"/>
+      <c r="H11" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A12" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C12" s="48" t="s">
         <v>105</v>
       </c>
@@ -7249,18 +7295,22 @@
         <v>124</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G12" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="50"/>
+      <c r="H12" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A13" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C13" s="48" t="s">
         <v>106</v>
       </c>
@@ -7271,12 +7321,14 @@
         <v>124</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G13" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="50"/>
+      <c r="H13" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
       <c r="A14" s="32"/>
@@ -7328,7 +7380,9 @@
       <c r="A18" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C18" s="48" t="s">
         <v>89</v>
       </c>
@@ -7336,7 +7390,7 @@
         <v>126</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="49" t="s">
@@ -7348,7 +7402,9 @@
       <c r="A19" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C19" s="48" t="s">
         <v>131</v>
       </c>
@@ -7356,7 +7412,7 @@
         <v>128</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="49" t="s">
@@ -7398,10 +7454,10 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:F6"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7486,7 +7542,9 @@
       <c r="A5" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C5" s="48" t="s">
         <v>87</v>
       </c>
@@ -7497,18 +7555,22 @@
         <v>135</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G5" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="50"/>
+      <c r="H5" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A6" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C6" s="48" t="s">
         <v>90</v>
       </c>
@@ -7519,18 +7581,22 @@
         <v>136</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G6" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="50"/>
+      <c r="H6" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A7" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C7" s="48" t="s">
         <v>91</v>
       </c>
@@ -7541,18 +7607,22 @@
         <v>136</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G7" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A8" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C8" s="48" t="s">
         <v>101</v>
       </c>
@@ -7563,18 +7633,22 @@
         <v>136</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G8" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="50"/>
+      <c r="H8" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A9" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C9" s="48" t="s">
         <v>102</v>
       </c>
@@ -7585,18 +7659,22 @@
         <v>136</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G9" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="50"/>
+      <c r="H9" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A10" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C10" s="48" t="s">
         <v>103</v>
       </c>
@@ -7607,18 +7685,22 @@
         <v>136</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G10" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="50"/>
+      <c r="H10" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A11" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C11" s="48" t="s">
         <v>104</v>
       </c>
@@ -7629,18 +7711,22 @@
         <v>136</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G11" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="50"/>
+      <c r="H11" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A12" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C12" s="48" t="s">
         <v>105</v>
       </c>
@@ -7651,18 +7737,22 @@
         <v>136</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G12" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="50"/>
+      <c r="H12" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A13" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C13" s="48" t="s">
         <v>106</v>
       </c>
@@ -7673,12 +7763,14 @@
         <v>136</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G13" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="50"/>
+      <c r="H13" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
       <c r="A14" s="32"/>
@@ -7730,7 +7822,9 @@
       <c r="A18" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C18" s="48" t="s">
         <v>89</v>
       </c>
@@ -7738,7 +7832,7 @@
         <v>132</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="49" t="s">
@@ -7750,7 +7844,9 @@
       <c r="A19" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C19" s="48" t="s">
         <v>131</v>
       </c>
@@ -7758,7 +7854,7 @@
         <v>133</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="49" t="s">
@@ -7803,7 +7899,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7888,7 +7984,9 @@
       <c r="A5" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C5" s="48" t="s">
         <v>87</v>
       </c>
@@ -7899,18 +7997,22 @@
         <v>137</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G5" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="50"/>
+      <c r="H5" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A6" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C6" s="48" t="s">
         <v>90</v>
       </c>
@@ -7921,18 +8023,22 @@
         <v>138</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G6" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="50"/>
+      <c r="H6" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A7" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C7" s="48" t="s">
         <v>91</v>
       </c>
@@ -7943,18 +8049,22 @@
         <v>138</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G7" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A8" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C8" s="48" t="s">
         <v>101</v>
       </c>
@@ -7965,18 +8075,22 @@
         <v>138</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G8" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="50"/>
+      <c r="H8" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A9" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C9" s="48" t="s">
         <v>102</v>
       </c>
@@ -7987,18 +8101,22 @@
         <v>138</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G9" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H9" s="50"/>
+      <c r="H9" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A10" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C10" s="48" t="s">
         <v>103</v>
       </c>
@@ -8009,18 +8127,22 @@
         <v>138</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G10" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="50"/>
+      <c r="H10" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A11" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C11" s="48" t="s">
         <v>104</v>
       </c>
@@ -8031,18 +8153,22 @@
         <v>138</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G11" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="50"/>
+      <c r="H11" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A12" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C12" s="48" t="s">
         <v>105</v>
       </c>
@@ -8053,18 +8179,22 @@
         <v>138</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G12" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="50"/>
+      <c r="H12" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="33" customFormat="1" ht="63">
       <c r="A13" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C13" s="48" t="s">
         <v>106</v>
       </c>
@@ -8075,12 +8205,14 @@
         <v>138</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G13" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="50"/>
+      <c r="H13" s="50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="33" customFormat="1" ht="16.5" thickBot="1">
       <c r="A14" s="32"/>
@@ -8132,15 +8264,17 @@
       <c r="A18" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C18" s="48" t="s">
         <v>89</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="49" t="s">
@@ -8152,15 +8286,17 @@
       <c r="A19" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="C19" s="48" t="s">
         <v>131</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="F19" s="44"/>
       <c r="G19" s="49" t="s">
